--- a/ResultadoEleicoesDistritos/PORTALEGRE_CASTELO DE VIDE.xlsx
+++ b/ResultadoEleicoesDistritos/PORTALEGRE_CASTELO DE VIDE.xlsx
@@ -597,64 +597,64 @@
         <v>792</v>
       </c>
       <c r="H2" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="J2" t="n">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>101</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>64</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>92</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="n">
-        <v>52</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
         <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="T2" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="U2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
